--- a/ask_crawling/d/fs2.xlsx
+++ b/ask_crawling/d/fs2.xlsx
@@ -434,6 +434,11 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>date</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
           <t>유동자산</t>
